--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T10:00:41+00:00</t>
+    <t>2025-07-03T14:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T14:58:35+00:00</t>
+    <t>2025-07-07T09:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T09:10:41+00:00</t>
+    <t>2025-07-08T12:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-bundle</t>
+    <t>https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-bundle</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T12:05:35+00:00</t>
+    <t>2025-07-09T12:05:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -849,7 +849,7 @@
     <t>Bundle.entry:DUIDocumentReference.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-documentreference}
+    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-documentreference}
 </t>
   </si>
   <si>
@@ -962,7 +962,7 @@
     <t>tddui-documentreference</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-documentreference</t>
+    <t>https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-documentreference</t>
   </si>
   <si>
     <t>TDDUIDocumentReference</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:05:51+00:00</t>
+    <t>2025-07-28T15:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:32:52+00:00</t>
+    <t>2025-07-31T14:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:46:40+00:00</t>
+    <t>2025-07-31T14:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:58:24+00:00</t>
+    <t>2025-08-01T06:20:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:20:58+00:00</t>
+    <t>2025-08-01T06:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:53+00:00</t>
+    <t>2025-08-01T06:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:42:09+00:00</t>
+    <t>2025-08-01T06:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:55:52+00:00</t>
+    <t>2025-08-01T07:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:08:15+00:00</t>
+    <t>2025-08-01T07:10:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:10:19+00:00</t>
+    <t>2025-08-01T07:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:30:15+00:00</t>
+    <t>2025-08-01T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T07:35:44+00:00</t>
+    <t>2025-08-22T13:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:00:31+00:00</t>
+    <t>2025-09-10T14:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -349,7 +349,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1052,7 +1052,7 @@
     <t>DocumentReference.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -1114,7 +1114,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -1339,7 +1339,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1355,7 +1355,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1371,7 +1371,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1426,7 +1426,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T14:23:46+00:00</t>
+    <t>2025-09-17T13:36:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T13:36:16+00:00</t>
+    <t>2025-09-19T07:33:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T07:33:08+00:00</t>
+    <t>2025-09-22T08:48:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:48:23+00:00</t>
+    <t>2025-10-15T08:15:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T08:15:35+00:00</t>
+    <t>2025-10-15T12:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:27:42+00:00</t>
+    <t>2025-10-15T13:26:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T13:26:09+00:00</t>
+    <t>2025-10-17T07:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/all-profiles.xlsx
+++ b/main/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:58:51+00:00</t>
+    <t>2025-10-17T08:37:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -349,7 +349,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1052,7 +1052,7 @@
     <t>DocumentReference.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -1114,7 +1114,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -1339,7 +1339,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1355,7 +1355,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -1371,7 +1371,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1426,7 +1426,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>DocumentReference.context.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
     <t>DocumentReference.context.related</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -2310,17 +2310,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="43.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="19.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="61.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="50.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="23.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,21 +2329,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="30.6015625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="102.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.89453125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.40234375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
